--- a/natmiOut/OldD0/LR-pairs_lrc2p/Plau-St14.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Plau-St14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.1723094018074</v>
+        <v>43.21270066666667</v>
       </c>
       <c r="H2">
-        <v>37.1723094018074</v>
+        <v>129.638102</v>
       </c>
       <c r="I2">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="J2">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.345035575171224</v>
+        <v>0.3701153333333333</v>
       </c>
       <c r="N2">
-        <v>0.345035575171224</v>
+        <v>1.110346</v>
       </c>
       <c r="O2">
-        <v>0.4020259695555035</v>
+        <v>0.3716314658367922</v>
       </c>
       <c r="P2">
-        <v>0.4020259695555035</v>
+        <v>0.3716314658367921</v>
       </c>
       <c r="Q2">
-        <v>12.82576915489531</v>
+        <v>15.99368311147689</v>
       </c>
       <c r="R2">
-        <v>12.82576915489531</v>
+        <v>143.943148003292</v>
       </c>
       <c r="S2">
-        <v>0.05257063948802846</v>
+        <v>0.0552874934576183</v>
       </c>
       <c r="T2">
-        <v>0.05257063948802846</v>
+        <v>0.05528749345761828</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,57 +590,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.1723094018074</v>
+        <v>43.21270066666667</v>
       </c>
       <c r="H3">
-        <v>37.1723094018074</v>
+        <v>129.638102</v>
       </c>
       <c r="I3">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="J3">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.513206432310804</v>
+        <v>0.5312866666666666</v>
       </c>
       <c r="N3">
-        <v>0.513206432310804</v>
+        <v>1.59386</v>
       </c>
       <c r="O3">
-        <v>0.5979740304444965</v>
+        <v>0.5334630179589331</v>
       </c>
       <c r="P3">
-        <v>0.5979740304444965</v>
+        <v>0.5334630179589331</v>
       </c>
       <c r="Q3">
-        <v>19.07706828885493</v>
+        <v>22.95833169485778</v>
       </c>
       <c r="R3">
-        <v>19.07706828885493</v>
+        <v>206.62498525372</v>
       </c>
       <c r="S3">
-        <v>0.07819364806820261</v>
+        <v>0.07936312133547516</v>
       </c>
       <c r="T3">
-        <v>0.07819364806820261</v>
+        <v>0.07936312133547514</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>237.599829293337</v>
+        <v>43.21270066666667</v>
       </c>
       <c r="H4">
-        <v>237.599829293337</v>
+        <v>129.638102</v>
       </c>
       <c r="I4">
-        <v>0.8358257235294255</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="J4">
-        <v>0.8358257235294255</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.345035575171224</v>
+        <v>0.09451833333333333</v>
       </c>
       <c r="N4">
-        <v>0.345035575171224</v>
+        <v>0.283555</v>
       </c>
       <c r="O4">
-        <v>0.4020259695555035</v>
+        <v>0.09490551620427472</v>
       </c>
       <c r="P4">
-        <v>0.4020259695555035</v>
+        <v>0.0949055162042747</v>
       </c>
       <c r="Q4">
-        <v>81.98039376081117</v>
+        <v>4.084392445845555</v>
       </c>
       <c r="R4">
-        <v>81.98039376081117</v>
+        <v>36.75953201261</v>
       </c>
       <c r="S4">
-        <v>0.3360236468813475</v>
+        <v>0.01411906307346985</v>
       </c>
       <c r="T4">
-        <v>0.3360236468813475</v>
+        <v>0.01411906307346985</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>237.599829293337</v>
+        <v>237.7114053333333</v>
       </c>
       <c r="H5">
-        <v>237.599829293337</v>
+        <v>713.134216</v>
       </c>
       <c r="I5">
-        <v>0.8358257235294255</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="J5">
-        <v>0.8358257235294255</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.513206432310804</v>
+        <v>0.3701153333333333</v>
       </c>
       <c r="N5">
-        <v>0.513206432310804</v>
+        <v>1.110346</v>
       </c>
       <c r="O5">
-        <v>0.5979740304444965</v>
+        <v>0.3716314658367922</v>
       </c>
       <c r="P5">
-        <v>0.5979740304444965</v>
+        <v>0.3716314658367921</v>
       </c>
       <c r="Q5">
-        <v>121.9377607092895</v>
+        <v>87.98063602208177</v>
       </c>
       <c r="R5">
-        <v>121.9377607092895</v>
+        <v>791.8257241987359</v>
       </c>
       <c r="S5">
-        <v>0.499802076648078</v>
+        <v>0.3041343763387075</v>
       </c>
       <c r="T5">
-        <v>0.499802076648078</v>
+        <v>0.3041343763387075</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.49744359292956</v>
+        <v>237.7114053333333</v>
       </c>
       <c r="H6">
-        <v>9.49744359292956</v>
+        <v>713.134216</v>
       </c>
       <c r="I6">
-        <v>0.03340998891434332</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="J6">
-        <v>0.03340998891434332</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.345035575171224</v>
+        <v>0.5312866666666666</v>
       </c>
       <c r="N6">
-        <v>0.345035575171224</v>
+        <v>1.59386</v>
       </c>
       <c r="O6">
-        <v>0.4020259695555035</v>
+        <v>0.5334630179589331</v>
       </c>
       <c r="P6">
-        <v>0.4020259695555035</v>
+        <v>0.5334630179589331</v>
       </c>
       <c r="Q6">
-        <v>3.276955912742707</v>
+        <v>126.2929001681955</v>
       </c>
       <c r="R6">
-        <v>3.276955912742707</v>
+        <v>1136.63610151376</v>
       </c>
       <c r="S6">
-        <v>0.0134316831861275</v>
+        <v>0.4365734798623244</v>
       </c>
       <c r="T6">
-        <v>0.0134316831861275</v>
+        <v>0.4365734798623244</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +835,241 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>237.7114053333333</v>
+      </c>
+      <c r="H7">
+        <v>713.134216</v>
+      </c>
+      <c r="I7">
+        <v>0.8183762794517323</v>
+      </c>
+      <c r="J7">
+        <v>0.8183762794517323</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.09451833333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.283555</v>
+      </c>
+      <c r="O7">
+        <v>0.09490551620427472</v>
+      </c>
+      <c r="P7">
+        <v>0.0949055162042747</v>
+      </c>
+      <c r="Q7">
+        <v>22.46808584643111</v>
+      </c>
+      <c r="R7">
+        <v>202.21277261788</v>
+      </c>
+      <c r="S7">
+        <v>0.07766842325070043</v>
+      </c>
+      <c r="T7">
+        <v>0.07766842325070042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>9.543019333333334</v>
+      </c>
+      <c r="H8">
+        <v>28.629058</v>
+      </c>
+      <c r="I8">
+        <v>0.03285404268170446</v>
+      </c>
+      <c r="J8">
+        <v>0.03285404268170446</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.3701153333333333</v>
+      </c>
+      <c r="N8">
+        <v>1.110346</v>
+      </c>
+      <c r="O8">
+        <v>0.3716314658367922</v>
+      </c>
+      <c r="P8">
+        <v>0.3716314658367921</v>
+      </c>
+      <c r="Q8">
+        <v>3.532017781563111</v>
+      </c>
+      <c r="R8">
+        <v>31.788160034068</v>
+      </c>
+      <c r="S8">
+        <v>0.01220959604046636</v>
+      </c>
+      <c r="T8">
+        <v>0.01220959604046636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>9.49744359292956</v>
-      </c>
-      <c r="H7">
-        <v>9.49744359292956</v>
-      </c>
-      <c r="I7">
-        <v>0.03340998891434332</v>
-      </c>
-      <c r="J7">
-        <v>0.03340998891434332</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.513206432310804</v>
-      </c>
-      <c r="N7">
-        <v>0.513206432310804</v>
-      </c>
-      <c r="O7">
-        <v>0.5979740304444965</v>
-      </c>
-      <c r="P7">
-        <v>0.5979740304444965</v>
-      </c>
-      <c r="Q7">
-        <v>4.874149142400483</v>
-      </c>
-      <c r="R7">
-        <v>4.874149142400483</v>
-      </c>
-      <c r="S7">
-        <v>0.01997830572821583</v>
-      </c>
-      <c r="T7">
-        <v>0.01997830572821583</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>9.543019333333334</v>
+      </c>
+      <c r="H9">
+        <v>28.629058</v>
+      </c>
+      <c r="I9">
+        <v>0.03285404268170446</v>
+      </c>
+      <c r="J9">
+        <v>0.03285404268170446</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5312866666666666</v>
+      </c>
+      <c r="N9">
+        <v>1.59386</v>
+      </c>
+      <c r="O9">
+        <v>0.5334630179589331</v>
+      </c>
+      <c r="P9">
+        <v>0.5334630179589331</v>
+      </c>
+      <c r="Q9">
+        <v>5.070078931542222</v>
+      </c>
+      <c r="R9">
+        <v>45.63071038387999</v>
+      </c>
+      <c r="S9">
+        <v>0.01752641676113366</v>
+      </c>
+      <c r="T9">
+        <v>0.01752641676113366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9.543019333333334</v>
+      </c>
+      <c r="H10">
+        <v>28.629058</v>
+      </c>
+      <c r="I10">
+        <v>0.03285404268170446</v>
+      </c>
+      <c r="J10">
+        <v>0.03285404268170446</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.09451833333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.283555</v>
+      </c>
+      <c r="O10">
+        <v>0.09490551620427472</v>
+      </c>
+      <c r="P10">
+        <v>0.0949055162042747</v>
+      </c>
+      <c r="Q10">
+        <v>0.9019902823544445</v>
+      </c>
+      <c r="R10">
+        <v>8.11791254119</v>
+      </c>
+      <c r="S10">
+        <v>0.003118029880104436</v>
+      </c>
+      <c r="T10">
+        <v>0.003118029880104436</v>
       </c>
     </row>
   </sheetData>
